--- a/DEMOTRello_COM/src/test/resources/dynamicData.xlsx
+++ b/DEMOTRello_COM/src/test/resources/dynamicData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{97ADF64E-BAA5-4C7E-83FD-FCBF38CB77F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{067671B3-8699-4CCF-82E3-E769A874F52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{4196A37B-26F0-4456-BB36-919359824C78}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <t>Demo Web Shop. Computers</t>
   </si>
   <si>
-    <t>Demo Web Shop. Electronic</t>
+    <t>Demo Web Shop. Electronics</t>
   </si>
 </sst>
 </file>
